--- a/dataBase/professions.xlsx
+++ b/dataBase/professions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projecs\pythonProject\dataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJEKTY\CODING\pythonProject\dataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1865FD0E-8934-4571-A52B-F7B38DF86BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2A6E96-9734-4C43-B01B-B49C57EB19F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25425" yWindow="0" windowWidth="12975" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44430" yWindow="3105" windowWidth="28800" windowHeight="15345" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rodzaje Profesji" sheetId="1" r:id="rId1"/>
@@ -790,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1052,7 +1052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF90450-66E3-41E4-99C3-474117DEDDCD}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1788,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E2B6A0-03AF-4B4C-89BF-ABE42E5B5622}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataBase/professions.xlsx
+++ b/dataBase/professions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJEKTY\CODING\pythonProject\dataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2A6E96-9734-4C43-B01B-B49C57EB19F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4935118-80C2-4AD7-8892-8BA61C327E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44430" yWindow="3105" windowWidth="28800" windowHeight="15345" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43845" yWindow="5205" windowWidth="28800" windowHeight="15345" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rodzaje Profesji" sheetId="1" r:id="rId1"/>
@@ -1608,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207BE507-6F4E-444D-8DBE-4925F75E9F10}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,7 +1788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E2B6A0-03AF-4B4C-89BF-ABE42E5B5622}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>

--- a/dataBase/professions.xlsx
+++ b/dataBase/professions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJEKTY\CODING\pythonProject\dataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4935118-80C2-4AD7-8892-8BA61C327E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AC51D4-1BBE-4F2E-BA68-CA174E28EB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43845" yWindow="5205" windowWidth="28800" windowHeight="15345" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38295" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rodzaje Profesji" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="127">
   <si>
     <t>value</t>
   </si>
@@ -346,15 +346,6 @@
     <t>Pionier</t>
   </si>
   <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>8-9</t>
-  </si>
-  <si>
-    <t>15-16</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -420,13 +411,31 @@
   <si>
     <t>Poeta i pisarz
 czytanie i pisanie w języku w którym już umiesz</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,28 +452,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -488,26 +480,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -788,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,59 +789,51 @@
     <col min="2" max="2" width="78" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -863,183 +844,175 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA51E053-04AF-4B85-9258-79E0C8939A6E}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1">
         <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1050,186 +1023,178 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF90450-66E3-41E4-99C3-474117DEDDCD}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="1">
         <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>123</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>47</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1240,179 +1205,171 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54D438E-B876-412A-B870-D1306E371F61}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1423,41 +1380,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581224E0-324E-4569-823C-DF5071F659FA}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -1465,47 +1422,47 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -1513,15 +1470,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -1529,15 +1486,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -1545,7 +1502,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -1553,23 +1510,23 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>79</v>
@@ -1577,25 +1534,17 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1606,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207BE507-6F4E-444D-8DBE-4925F75E9F10}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,52 +1568,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="1">
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>90</v>
@@ -1682,7 +1630,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>94</v>
@@ -1690,94 +1638,115 @@
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>10</v>
+      <c r="A9" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1808,24 +1777,24 @@
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1833,7 +1802,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1841,37 +1810,37 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1879,31 +1848,31 @@
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/dataBase/professions.xlsx
+++ b/dataBase/professions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJEKTY\CODING\pythonProject\dataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AC51D4-1BBE-4F2E-BA68-CA174E28EB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E5CDBB-8868-465D-ACD4-C7819061DA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57495" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rodzaje Profesji" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="128">
   <si>
     <t>value</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
 </sst>
 </file>
@@ -777,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,53 +792,67 @@
     <col min="2" max="2" width="78" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -844,10 +861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA51E053-04AF-4B85-9258-79E0C8939A6E}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,162 +874,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>13</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1023,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF90450-66E3-41E4-99C3-474117DEDDCD}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,165 +1061,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>17</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1205,171 +1238,179 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54D438E-B876-412A-B870-D1306E371F61}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1380,41 +1421,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581224E0-324E-4569-823C-DF5071F659FA}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -1422,47 +1463,47 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -1470,15 +1511,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -1486,15 +1527,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -1502,7 +1543,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -1510,23 +1551,23 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>79</v>
@@ -1534,17 +1575,25 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1555,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207BE507-6F4E-444D-8DBE-4925F75E9F10}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,78 +1617,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>82</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>94</v>
@@ -1647,62 +1695,62 @@
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>10</v>
+      <c r="A10" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>89</v>
@@ -1711,42 +1759,51 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1758,7 +1815,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
